--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3730" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3730" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CSTR configuration" sheetId="1" r:id="rId1"/>
+    <sheet name="CSTR" sheetId="1" r:id="rId1"/>
     <sheet name="reagents" sheetId="2" r:id="rId2"/>
     <sheet name="experiment" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>CSTR volume</t>
   </si>
@@ -35,37 +35,52 @@
     <t>Concentration (mM)</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Time (min)</t>
+  </si>
+  <si>
+    <t>Syringe 1</t>
+  </si>
+  <si>
+    <t>Syringe 2</t>
+  </si>
+  <si>
+    <t>Syringe 3</t>
+  </si>
+  <si>
+    <t>Syringe 4</t>
+  </si>
+  <si>
+    <t>Syringe 5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Total time (min)</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Time (min)</t>
-  </si>
-  <si>
-    <t>Syringe 1</t>
-  </si>
-  <si>
-    <t>Syringe 2</t>
-  </si>
-  <si>
-    <t>Syringe 3</t>
-  </si>
-  <si>
-    <t>Total time (min)</t>
   </si>
 </sst>
 </file>
@@ -104,7 +119,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,21 +425,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1200</v>
+      <c r="B1" s="1">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -434,67 +444,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>18.8</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>30</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -504,105 +525,313 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>300</v>
-      </c>
-      <c r="C2">
-        <v>640</v>
-      </c>
-      <c r="D2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <v>640</v>
-      </c>
-      <c r="D3">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>2400</v>
-      </c>
-      <c r="C4">
-        <v>6400</v>
-      </c>
-      <c r="D4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>33</v>
-      </c>
-      <c r="B5">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1">
+        <v>533</v>
+      </c>
+      <c r="D2" s="1">
+        <v>84</v>
+      </c>
+      <c r="E2" s="1">
+        <v>476</v>
+      </c>
+      <c r="F2" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>213</v>
+      </c>
+      <c r="C3" s="1">
+        <v>427</v>
+      </c>
+      <c r="D3" s="1">
+        <v>84</v>
+      </c>
+      <c r="E3" s="1">
+        <v>476</v>
+      </c>
+      <c r="F3" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2130</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4270</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1680</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3920</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>213</v>
+      </c>
+      <c r="C5" s="1">
+        <v>427</v>
+      </c>
+      <c r="D5" s="1">
+        <v>168</v>
+      </c>
+      <c r="E5" s="1">
+        <v>392</v>
+      </c>
+      <c r="F5" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1">
+        <v>267</v>
+      </c>
+      <c r="C6" s="1">
+        <v>373</v>
+      </c>
+      <c r="D6" s="1">
+        <v>168</v>
+      </c>
+      <c r="E6" s="1">
+        <v>392</v>
+      </c>
+      <c r="F6" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2130</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4270</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1680</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3920</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1">
+        <v>213</v>
+      </c>
+      <c r="C8" s="1">
+        <v>427</v>
+      </c>
+      <c r="D8" s="1">
+        <v>168</v>
+      </c>
+      <c r="E8" s="1">
+        <v>392</v>
+      </c>
+      <c r="F8" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>93</v>
+      </c>
+      <c r="B9" s="1">
+        <v>213</v>
+      </c>
+      <c r="C9" s="1">
+        <v>427</v>
+      </c>
+      <c r="D9" s="1">
+        <v>210</v>
+      </c>
+      <c r="E9" s="1">
+        <v>350</v>
+      </c>
+      <c r="F9" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1">
         <v>240</v>
       </c>
-      <c r="C5">
-        <v>640</v>
-      </c>
-      <c r="D5">
+      <c r="C10" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>640</v>
-      </c>
-      <c r="D6">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>123</v>
-      </c>
+      <c r="D10" s="1">
+        <v>210</v>
+      </c>
+      <c r="E10" s="1">
+        <v>350</v>
+      </c>
+      <c r="F10" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>198</v>
+      </c>
+      <c r="B11" s="1">
+        <v>240</v>
+      </c>
+      <c r="C11" s="1">
+        <v>400</v>
+      </c>
+      <c r="D11" s="1">
+        <v>235</v>
+      </c>
+      <c r="E11" s="1">
+        <v>325</v>
+      </c>
+      <c r="F11" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>239</v>
+      </c>
+      <c r="B12" s="1">
+        <v>240</v>
+      </c>
+      <c r="C12" s="1">
+        <v>400</v>
+      </c>
+      <c r="D12" s="1">
+        <v>252</v>
+      </c>
+      <c r="E12" s="1">
+        <v>308</v>
+      </c>
+      <c r="F12" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>253</v>
+      </c>
+      <c r="B13" s="1">
+        <v>240</v>
+      </c>
+      <c r="C13" s="1">
+        <v>400</v>
+      </c>
+      <c r="D13" s="1">
+        <v>269</v>
+      </c>
+      <c r="E13" s="1">
+        <v>291</v>
+      </c>
+      <c r="F13" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>446</v>
+      </c>
+      <c r="B14" s="1">
+        <v>240</v>
+      </c>
+      <c r="C14" s="1">
+        <v>400</v>
+      </c>
+      <c r="D14" s="1">
+        <v>294</v>
+      </c>
+      <c r="E14" s="1">
+        <v>266</v>
+      </c>
+      <c r="F14" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>515</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
